--- a/Data Files/testdata.xlsx
+++ b/Data Files/testdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA PROJECTS\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmbugua1\Desktop\Folder\test\masoko\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>email_address</t>
   </si>
@@ -69,22 +69,19 @@
     <t>Mbugua</t>
   </si>
   <si>
-    <t>masokotests5@gmail.com</t>
-  </si>
-  <si>
     <t>@12Masoko00-</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>723631022</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>Url</t>
+  </si>
+  <si>
+    <t>masokotests10@gmail.com</t>
+  </si>
+  <si>
+    <t>778005005</t>
   </si>
 </sst>
 </file>
@@ -465,10 +462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -517,47 +514,30 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
-        <v>778005575</v>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -676,24 +656,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;1#&amp;"Calibri"&amp;10 C3 - Safaricom Confidential Internal</oddFooter>
   </headerFooter>
